--- a/lab5/ex1.xlsx
+++ b/lab5/ex1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITMO\Операционные системы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITMO\Операционные системы\ITMO-Operating-Systems\lab5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5345B7FA-FEB7-4639-92D8-72074F6C0F96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44248218-4956-4191-9DA9-771270FAF14C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1588,82 +1588,82 @@
                   <c:v>727.4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>727.4</c:v>
+                  <c:v>654.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>727.4</c:v>
+                  <c:v>520.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>727.4</c:v>
+                  <c:v>405.4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>727.4</c:v>
+                  <c:v>323.8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>727.4</c:v>
+                  <c:v>265.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>727.4</c:v>
+                  <c:v>211.8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>727.4</c:v>
+                  <c:v>103.6</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>727.4</c:v>
+                  <c:v>45.1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>727.4</c:v>
+                  <c:v>382.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>727.4</c:v>
+                  <c:v>382.7</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>727.4</c:v>
+                  <c:v>382.7</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>727.4</c:v>
+                  <c:v>382.7</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>727.4</c:v>
+                  <c:v>382.7</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>654.20000000000005</c:v>
+                  <c:v>382.7</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>520.20000000000005</c:v>
+                  <c:v>382.7</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>405.4</c:v>
+                  <c:v>382.7</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>382.7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>382.7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>382.7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>382.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>323.8</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="45">
                   <c:v>265.60000000000002</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="46">
                   <c:v>211.8</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="47">
                   <c:v>103.6</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>45.1</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>382.5</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>382.7</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>382.7</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>382.7</c:v>
-                </c:pt>
                 <c:pt idx="49">
-                  <c:v>382.7</c:v>
+                  <c:v>40.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3478,8 +3478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4081,7 +4081,7 @@
         <v>70.5</v>
       </c>
       <c r="N26">
-        <v>727.4</v>
+        <v>654.20000000000005</v>
       </c>
       <c r="O26" s="8">
         <v>0.331087962962963</v>
@@ -4104,7 +4104,7 @@
         <v>71.3</v>
       </c>
       <c r="N27">
-        <v>727.4</v>
+        <v>520.20000000000005</v>
       </c>
       <c r="O27" s="8">
         <v>0.33112268518518517</v>
@@ -4127,7 +4127,7 @@
         <v>73</v>
       </c>
       <c r="N28">
-        <v>727.4</v>
+        <v>405.4</v>
       </c>
       <c r="O28" s="8">
         <v>0.33113425925925927</v>
@@ -4150,7 +4150,7 @@
         <v>72.900000000000006</v>
       </c>
       <c r="N29">
-        <v>727.4</v>
+        <v>323.8</v>
       </c>
       <c r="O29" s="8">
         <v>0.3311574074074074</v>
@@ -4173,7 +4173,7 @@
         <v>65.599999999999994</v>
       </c>
       <c r="N30">
-        <v>727.4</v>
+        <v>265.60000000000002</v>
       </c>
       <c r="O30" s="8">
         <v>0.33118055555555553</v>
@@ -4196,7 +4196,7 @@
         <v>78</v>
       </c>
       <c r="N31">
-        <v>727.4</v>
+        <v>211.8</v>
       </c>
       <c r="O31" s="8">
         <v>0.33120370370370372</v>
@@ -4219,7 +4219,7 @@
         <v>64.8</v>
       </c>
       <c r="N32">
-        <v>727.4</v>
+        <v>103.6</v>
       </c>
       <c r="O32" s="8">
         <v>0.33121527777777776</v>
@@ -4242,7 +4242,7 @@
         <v>791.1</v>
       </c>
       <c r="N33">
-        <v>727.4</v>
+        <v>45.1</v>
       </c>
       <c r="O33" s="8">
         <v>0.33127314814814818</v>
@@ -4265,7 +4265,7 @@
         <v>712.7</v>
       </c>
       <c r="N34">
-        <v>727.4</v>
+        <v>382.5</v>
       </c>
       <c r="O34" s="8">
         <v>0.33128472222222222</v>
@@ -4288,7 +4288,7 @@
         <v>657.5</v>
       </c>
       <c r="N35">
-        <v>727.4</v>
+        <v>382.7</v>
       </c>
       <c r="O35" s="8">
         <v>0.33129629629629631</v>
@@ -4311,7 +4311,7 @@
         <v>602.5</v>
       </c>
       <c r="N36">
-        <v>727.4</v>
+        <v>382.7</v>
       </c>
       <c r="O36" s="8">
         <v>0.33131944444444444</v>
@@ -4334,7 +4334,7 @@
         <v>546.29999999999995</v>
       </c>
       <c r="N37">
-        <v>727.4</v>
+        <v>382.7</v>
       </c>
       <c r="O37" s="8">
         <v>0.33133101851851854</v>
@@ -4357,7 +4357,7 @@
         <v>491.4</v>
       </c>
       <c r="N38">
-        <v>727.4</v>
+        <v>382.7</v>
       </c>
       <c r="O38" s="8">
         <v>0.33134259259259258</v>
@@ -4380,7 +4380,7 @@
         <v>436.5</v>
       </c>
       <c r="N39">
-        <v>654.20000000000005</v>
+        <v>382.7</v>
       </c>
       <c r="O39" s="8">
         <v>0.33136574074074071</v>
@@ -4397,7 +4397,7 @@
         <v>366</v>
       </c>
       <c r="N40">
-        <v>520.20000000000005</v>
+        <v>382.7</v>
       </c>
       <c r="O40" s="8">
         <v>0.33137731481481481</v>
@@ -4414,7 +4414,7 @@
         <v>308.7</v>
       </c>
       <c r="N41">
-        <v>405.4</v>
+        <v>382.7</v>
       </c>
       <c r="O41" s="8">
         <v>0.3313888888888889</v>
@@ -4431,7 +4431,7 @@
         <v>253.5</v>
       </c>
       <c r="N42">
-        <v>323.8</v>
+        <v>382.7</v>
       </c>
       <c r="O42" s="8">
         <v>0.33141203703703703</v>
@@ -4448,7 +4448,7 @@
         <v>198</v>
       </c>
       <c r="N43">
-        <v>265.60000000000002</v>
+        <v>382.7</v>
       </c>
       <c r="O43" s="8">
         <v>0.33142361111111113</v>
@@ -4465,7 +4465,7 @@
         <v>142.80000000000001</v>
       </c>
       <c r="N44">
-        <v>211.8</v>
+        <v>382.7</v>
       </c>
       <c r="O44" s="8">
         <v>0.33143518518518517</v>
@@ -4482,7 +4482,7 @@
         <v>87</v>
       </c>
       <c r="N45">
-        <v>103.6</v>
+        <v>382.7</v>
       </c>
       <c r="O45" s="8">
         <v>0.33145833333333335</v>
@@ -4499,7 +4499,7 @@
         <v>70.400000000000006</v>
       </c>
       <c r="N46">
-        <v>45.1</v>
+        <v>323.8</v>
       </c>
       <c r="O46" s="8">
         <v>0.33148148148148149</v>
@@ -4516,7 +4516,7 @@
         <v>77.2</v>
       </c>
       <c r="N47">
-        <v>382.5</v>
+        <v>265.60000000000002</v>
       </c>
       <c r="O47" s="8">
         <v>0.33150462962962962</v>
@@ -4533,7 +4533,7 @@
         <v>66.2</v>
       </c>
       <c r="N48">
-        <v>382.7</v>
+        <v>211.8</v>
       </c>
       <c r="O48" s="8">
         <v>0.33151620370370372</v>
@@ -4550,7 +4550,7 @@
         <v>83.8</v>
       </c>
       <c r="N49">
-        <v>382.7</v>
+        <v>103.6</v>
       </c>
       <c r="O49" s="8">
         <v>0.33153935185185185</v>
@@ -4567,7 +4567,7 @@
         <v>77.3</v>
       </c>
       <c r="N50">
-        <v>382.7</v>
+        <v>45.1</v>
       </c>
       <c r="O50" s="8">
         <v>0.33155092592592594</v>
@@ -4584,7 +4584,7 @@
         <v>80.599999999999994</v>
       </c>
       <c r="N51">
-        <v>382.7</v>
+        <v>40.1</v>
       </c>
       <c r="O51" s="8">
         <v>0.33156249999999998</v>
